--- a/多语言导入/translations.xlsx
+++ b/多语言导入/translations.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
@@ -972,7 +972,7 @@
   <dimension ref="A1:BE22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
